--- a/Documents/Plan.xlsx
+++ b/Documents/Plan.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>Task 3</t>
   </si>
@@ -212,15 +212,9 @@
     <t>Nhóm 7</t>
   </si>
   <si>
-    <t>LEADER</t>
-  </si>
-  <si>
     <t>Khởi tạo</t>
   </si>
   <si>
-    <t>Thiết kế giao diện</t>
-  </si>
-  <si>
     <t>Thiết kế chương trình</t>
   </si>
   <si>
@@ -249,6 +243,27 @@
   </si>
   <si>
     <t>Vinh, Lam</t>
+  </si>
+  <si>
+    <t>Nội dung tuần 1</t>
+  </si>
+  <si>
+    <t>phần 2</t>
+  </si>
+  <si>
+    <t>phần 1</t>
+  </si>
+  <si>
+    <t>phần 3</t>
+  </si>
+  <si>
+    <t>phần 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinh </t>
+  </si>
+  <si>
+    <t>Lam</t>
   </si>
 </sst>
 </file>
@@ -659,7 +674,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -901,6 +916,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -908,16 +935,10 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1489,8 +1510,8 @@
   <dimension ref="A1:BL36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1539,119 +1560,119 @@
         <v>35</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="91">
+      <c r="D3" s="90"/>
+      <c r="E3" s="88">
         <v>45639</v>
       </c>
-      <c r="F3" s="91"/>
+      <c r="F3" s="88"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="86"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="88">
+      <c r="I4" s="85">
         <f>I5</f>
         <v>45635</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="88">
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="85">
         <f>P5</f>
         <v>45642</v>
       </c>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="88">
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="85">
         <f>W5</f>
         <v>45649</v>
       </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="88">
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="85">
         <f>AD5</f>
         <v>45656</v>
       </c>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="88">
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="85">
         <f>AK5</f>
         <v>45663</v>
       </c>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="88">
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="85">
         <f>AR5</f>
         <v>45670</v>
       </c>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="88">
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="86"/>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="87"/>
+      <c r="AY4" s="85">
         <f>AY5</f>
         <v>45677</v>
       </c>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="89"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="88">
+      <c r="AZ4" s="86"/>
+      <c r="BA4" s="86"/>
+      <c r="BB4" s="86"/>
+      <c r="BC4" s="86"/>
+      <c r="BD4" s="86"/>
+      <c r="BE4" s="87"/>
+      <c r="BF4" s="85">
         <f>BF5</f>
         <v>45684</v>
       </c>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="89"/>
-      <c r="BJ4" s="89"/>
-      <c r="BK4" s="89"/>
-      <c r="BL4" s="90"/>
+      <c r="BG4" s="86"/>
+      <c r="BH4" s="86"/>
+      <c r="BI4" s="86"/>
+      <c r="BJ4" s="86"/>
+      <c r="BK4" s="86"/>
+      <c r="BL4" s="87"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>45635</v>
@@ -2197,7 +2218,7 @@
         <v>39</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="19"/>
@@ -2270,10 +2291,10 @@
         <v>40</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="84" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" s="22">
         <v>1</v>
@@ -2351,10 +2372,10 @@
         <v>41</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="84" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="22">
         <v>1</v>
@@ -2431,10 +2452,10 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="58"/>
       <c r="B11" s="83" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" s="84" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="22">
         <v>1</v>
@@ -2510,10 +2531,10 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="58"/>
       <c r="B12" s="83" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="84" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="22">
         <v>1</v>
@@ -2589,10 +2610,10 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="58"/>
       <c r="B13" s="83" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="84" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" s="22">
         <v>1</v>
@@ -2671,7 +2692,7 @@
         <v>42</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C14" s="72"/>
       <c r="D14" s="24"/>
@@ -2741,17 +2762,25 @@
     </row>
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="59"/>
-      <c r="B15" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
+      <c r="B15" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="27">
+        <v>1</v>
+      </c>
+      <c r="E15" s="67">
+        <v>45646</v>
+      </c>
+      <c r="F15" s="67">
+        <v>45647</v>
+      </c>
       <c r="G15" s="17"/>
-      <c r="H15" s="17" t="str">
+      <c r="H15" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I15" s="44"/>
       <c r="J15" s="44"/>
@@ -2812,17 +2841,25 @@
     </row>
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="58"/>
-      <c r="B16" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
+      <c r="B16" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="27">
+        <v>1</v>
+      </c>
+      <c r="E16" s="67">
+        <v>45646</v>
+      </c>
+      <c r="F16" s="67">
+        <v>45647</v>
+      </c>
       <c r="G16" s="17"/>
-      <c r="H16" s="17" t="str">
+      <c r="H16" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
@@ -2883,17 +2920,25 @@
     </row>
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="58"/>
-      <c r="B17" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
+      <c r="B17" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="27">
+        <v>1</v>
+      </c>
+      <c r="E17" s="67">
+        <v>45646</v>
+      </c>
+      <c r="F17" s="67">
+        <v>45647</v>
+      </c>
       <c r="G17" s="17"/>
-      <c r="H17" s="17" t="str">
+      <c r="H17" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
@@ -2954,17 +2999,25 @@
     </row>
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="58"/>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="27">
         <v>1</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
+      <c r="E18" s="67">
+        <v>45646</v>
+      </c>
+      <c r="F18" s="67">
+        <v>45647</v>
+      </c>
       <c r="G18" s="17"/>
-      <c r="H18" s="17" t="str">
+      <c r="H18" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
@@ -3025,9 +3078,7 @@
     </row>
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="58"/>
-      <c r="B19" s="79" t="s">
-        <v>2</v>
-      </c>
+      <c r="B19" s="79"/>
       <c r="C19" s="73"/>
       <c r="D19" s="27"/>
       <c r="E19" s="67"/>
@@ -3099,7 +3150,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="74"/>
       <c r="D20" s="29"/>
@@ -3527,7 +3578,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="76"/>
       <c r="D26" s="34"/>
@@ -4106,6 +4157,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4113,11 +4169,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="14">

--- a/Documents/Plan.xlsx
+++ b/Documents/Plan.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>Task 3</t>
   </si>
@@ -215,9 +215,6 @@
     <t>Khởi tạo</t>
   </si>
   <si>
-    <t>Thiết kế chương trình</t>
-  </si>
-  <si>
     <t>Thực thi</t>
   </si>
   <si>
@@ -264,6 +261,30 @@
   </si>
   <si>
     <t>Lam</t>
+  </si>
+  <si>
+    <t>Nội dung tuần 2</t>
+  </si>
+  <si>
+    <t>Phần I</t>
+  </si>
+  <si>
+    <t>Phần II</t>
+  </si>
+  <si>
+    <t>Phần III</t>
+  </si>
+  <si>
+    <t>Phần IV</t>
+  </si>
+  <si>
+    <t>Vinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuấn </t>
+  </si>
+  <si>
+    <t>Lam,Vinh</t>
   </si>
 </sst>
 </file>
@@ -674,7 +695,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -916,6 +937,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -928,17 +962,10 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="11" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1509,9 +1536,9 @@
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="102" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1560,119 +1587,119 @@
         <v>35</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="88">
+      <c r="D3" s="88"/>
+      <c r="E3" s="93">
         <v>45639</v>
       </c>
-      <c r="F3" s="88"/>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="90"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="85">
+      <c r="I4" s="90">
         <f>I5</f>
         <v>45635</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="85">
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="90">
         <f>P5</f>
         <v>45642</v>
       </c>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="85">
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="90">
         <f>W5</f>
         <v>45649</v>
       </c>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="85">
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="90">
         <f>AD5</f>
         <v>45656</v>
       </c>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="85">
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="90">
         <f>AK5</f>
         <v>45663</v>
       </c>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="86"/>
-      <c r="AO4" s="86"/>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="87"/>
-      <c r="AR4" s="85">
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="90">
         <f>AR5</f>
         <v>45670</v>
       </c>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="86"/>
-      <c r="AU4" s="86"/>
-      <c r="AV4" s="86"/>
-      <c r="AW4" s="86"/>
-      <c r="AX4" s="87"/>
-      <c r="AY4" s="85">
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="90">
         <f>AY5</f>
         <v>45677</v>
       </c>
-      <c r="AZ4" s="86"/>
-      <c r="BA4" s="86"/>
-      <c r="BB4" s="86"/>
-      <c r="BC4" s="86"/>
-      <c r="BD4" s="86"/>
-      <c r="BE4" s="87"/>
-      <c r="BF4" s="85">
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="90">
         <f>BF5</f>
         <v>45684</v>
       </c>
-      <c r="BG4" s="86"/>
-      <c r="BH4" s="86"/>
-      <c r="BI4" s="86"/>
-      <c r="BJ4" s="86"/>
-      <c r="BK4" s="86"/>
-      <c r="BL4" s="87"/>
+      <c r="BG4" s="91"/>
+      <c r="BH4" s="91"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="92"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>45635</v>
@@ -2291,10 +2318,10 @@
         <v>40</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="22">
         <v>1</v>
@@ -2372,10 +2399,10 @@
         <v>41</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="22">
         <v>1</v>
@@ -2452,10 +2479,10 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="58"/>
       <c r="B11" s="83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="22">
         <v>1</v>
@@ -2531,10 +2558,10 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="58"/>
       <c r="B12" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="22">
         <v>1</v>
@@ -2610,10 +2637,10 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="58"/>
       <c r="B13" s="83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="22">
         <v>1</v>
@@ -2692,7 +2719,7 @@
         <v>42</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="72"/>
       <c r="D14" s="24"/>
@@ -2762,11 +2789,11 @@
     </row>
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="59"/>
-      <c r="B15" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="93" t="s">
-        <v>61</v>
+      <c r="B15" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="86" t="s">
+        <v>60</v>
       </c>
       <c r="D15" s="27">
         <v>1</v>
@@ -2841,11 +2868,11 @@
     </row>
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="58"/>
-      <c r="B16" s="92" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="93" t="s">
-        <v>54</v>
+      <c r="B16" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="86" t="s">
+        <v>53</v>
       </c>
       <c r="D16" s="27">
         <v>1</v>
@@ -2920,11 +2947,11 @@
     </row>
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="58"/>
-      <c r="B17" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="93" t="s">
-        <v>62</v>
+      <c r="B17" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="86" t="s">
+        <v>61</v>
       </c>
       <c r="D17" s="27">
         <v>1</v>
@@ -2999,11 +3026,11 @@
     </row>
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="58"/>
-      <c r="B18" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="93" t="s">
-        <v>53</v>
+      <c r="B18" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="86" t="s">
+        <v>52</v>
       </c>
       <c r="D18" s="27">
         <v>1</v>
@@ -3150,7 +3177,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C20" s="74"/>
       <c r="D20" s="29"/>
@@ -3220,17 +3247,25 @@
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="58"/>
-      <c r="B21" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
+      <c r="B21" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="95" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="32">
+        <v>1</v>
+      </c>
+      <c r="E21" s="68">
+        <v>45649</v>
+      </c>
+      <c r="F21" s="68">
+        <v>45652</v>
+      </c>
       <c r="G21" s="17"/>
-      <c r="H21" s="17" t="str">
+      <c r="H21" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I21" s="44"/>
       <c r="J21" s="44"/>
@@ -3291,17 +3326,25 @@
     </row>
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="58"/>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="32">
+        <v>1</v>
+      </c>
+      <c r="E22" s="68">
+        <v>45649</v>
+      </c>
+      <c r="F22" s="68">
+        <v>45652</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17">
+        <f t="shared" si="6"/>
         <v>4</v>
-      </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
       </c>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
@@ -3362,17 +3405,25 @@
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="58"/>
-      <c r="B23" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
+      <c r="B23" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="32">
+        <v>1</v>
+      </c>
+      <c r="E23" s="68">
+        <v>45649</v>
+      </c>
+      <c r="F23" s="68">
+        <v>45652</v>
+      </c>
       <c r="G23" s="17"/>
-      <c r="H23" s="17" t="str">
+      <c r="H23" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
@@ -3433,17 +3484,25 @@
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="58"/>
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="32">
         <v>1</v>
       </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
+      <c r="E24" s="68">
+        <v>45649</v>
+      </c>
+      <c r="F24" s="68">
+        <v>45652</v>
+      </c>
       <c r="G24" s="17"/>
-      <c r="H24" s="17" t="str">
+      <c r="H24" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
@@ -3504,9 +3563,7 @@
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="58"/>
-      <c r="B25" s="80" t="s">
-        <v>2</v>
-      </c>
+      <c r="B25" s="80"/>
       <c r="C25" s="75"/>
       <c r="D25" s="32"/>
       <c r="E25" s="68"/>
@@ -3578,7 +3635,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="76"/>
       <c r="D26" s="34"/>
@@ -4157,11 +4214,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4169,6 +4221,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="14">

--- a/Documents/Plan.xlsx
+++ b/Documents/Plan.xlsx
@@ -35,22 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
-  <si>
-    <t>Task 3</t>
-  </si>
-  <si>
-    <t>Task 4</t>
-  </si>
-  <si>
-    <t>Task 5</t>
-  </si>
-  <si>
-    <t>Task 1</t>
-  </si>
-  <si>
-    <t>Task 2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -215,9 +200,6 @@
     <t>Khởi tạo</t>
   </si>
   <si>
-    <t>Thực thi</t>
-  </si>
-  <si>
     <t>Hoàn thiện file plan</t>
   </si>
   <si>
@@ -285,6 +267,18 @@
   </si>
   <si>
     <t>Lam,Vinh</t>
+  </si>
+  <si>
+    <t>Nội dung tuần 3</t>
+  </si>
+  <si>
+    <t>Mô hình hệ thống</t>
+  </si>
+  <si>
+    <t>Code giao diện</t>
+  </si>
+  <si>
+    <t>Vinh, Tuấn, Bình, Lam</t>
   </si>
 </sst>
 </file>
@@ -695,7 +689,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -943,6 +937,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="10" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -960,12 +969,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1537,8 +1540,8 @@
   <dimension ref="A1:BL36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="102" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
+      <pane ySplit="6" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1557,10 +1560,10 @@
   <sheetData>
     <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="59" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" s="63" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1568,138 +1571,138 @@
       <c r="F1" s="47"/>
       <c r="H1" s="2"/>
       <c r="I1" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="58" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I2" s="61" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="93">
+        <v>55</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="93"/>
+      <c r="E3" s="98">
         <v>45639</v>
       </c>
-      <c r="F3" s="93"/>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="88"/>
+        <v>31</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="93"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="95">
         <f>I5</f>
         <v>45635</v>
       </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="90">
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="95">
         <f>P5</f>
         <v>45642</v>
       </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="90">
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="95">
         <f>W5</f>
         <v>45649</v>
       </c>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="90">
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="95">
         <f>AD5</f>
         <v>45656</v>
       </c>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="90">
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="95">
         <f>AK5</f>
         <v>45663</v>
       </c>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="91"/>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="90">
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="95">
         <f>AR5</f>
         <v>45670</v>
       </c>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="91"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="90">
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="95">
         <f>AY5</f>
         <v>45677</v>
       </c>
-      <c r="AZ4" s="91"/>
-      <c r="BA4" s="91"/>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="91"/>
-      <c r="BD4" s="91"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="90">
+      <c r="AZ4" s="96"/>
+      <c r="BA4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="95">
         <f>BF5</f>
         <v>45684</v>
       </c>
-      <c r="BG4" s="91"/>
-      <c r="BH4" s="91"/>
-      <c r="BI4" s="91"/>
-      <c r="BJ4" s="91"/>
-      <c r="BK4" s="91"/>
-      <c r="BL4" s="92"/>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="96"/>
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="97"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
+        <v>32</v>
+      </c>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>45635</v>
@@ -1927,26 +1930,26 @@
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="59" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I6" s="13" t="str">
         <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
@@ -2175,7 +2178,7 @@
     </row>
     <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="58" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C7" s="62"/>
       <c r="E7"/>
@@ -2242,10 +2245,10 @@
     </row>
     <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="59" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="19"/>
@@ -2315,13 +2318,13 @@
     </row>
     <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="59" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C9" s="84" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D9" s="22">
         <v>1</v>
@@ -2396,13 +2399,13 @@
     </row>
     <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="59" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C10" s="84" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D10" s="22">
         <v>1</v>
@@ -2479,10 +2482,10 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="58"/>
       <c r="B11" s="83" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C11" s="84" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D11" s="22">
         <v>1</v>
@@ -2558,10 +2561,10 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="58"/>
       <c r="B12" s="83" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C12" s="84" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D12" s="22">
         <v>1</v>
@@ -2637,10 +2640,10 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="58"/>
       <c r="B13" s="83" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C13" s="84" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D13" s="22">
         <v>1</v>
@@ -2716,10 +2719,10 @@
     </row>
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="59" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C14" s="72"/>
       <c r="D14" s="24"/>
@@ -2790,10 +2793,10 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="59"/>
       <c r="B15" s="85" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C15" s="86" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D15" s="27">
         <v>1</v>
@@ -2869,10 +2872,10 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="58"/>
       <c r="B16" s="85" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C16" s="86" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D16" s="27">
         <v>1</v>
@@ -2948,10 +2951,10 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="58"/>
       <c r="B17" s="85" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C17" s="86" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D17" s="27">
         <v>1</v>
@@ -3027,10 +3030,10 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="58"/>
       <c r="B18" s="85" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C18" s="86" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D18" s="27">
         <v>1</v>
@@ -3174,10 +3177,10 @@
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="58" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C20" s="74"/>
       <c r="D20" s="29"/>
@@ -3247,11 +3250,11 @@
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="58"/>
-      <c r="B21" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="95" t="s">
-        <v>67</v>
+      <c r="B21" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="88" t="s">
+        <v>61</v>
       </c>
       <c r="D21" s="32">
         <v>1</v>
@@ -3326,11 +3329,11 @@
     </row>
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="58"/>
-      <c r="B22" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="95" t="s">
-        <v>69</v>
+      <c r="B22" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="88" t="s">
+        <v>63</v>
       </c>
       <c r="D22" s="32">
         <v>1</v>
@@ -3405,11 +3408,11 @@
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="58"/>
-      <c r="B23" s="94" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="95" t="s">
-        <v>52</v>
+      <c r="B23" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="88" t="s">
+        <v>46</v>
       </c>
       <c r="D23" s="32">
         <v>1</v>
@@ -3484,11 +3487,11 @@
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="58"/>
-      <c r="B24" s="94" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="95" t="s">
-        <v>68</v>
+      <c r="B24" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="88" t="s">
+        <v>62</v>
       </c>
       <c r="D24" s="32">
         <v>1</v>
@@ -3632,10 +3635,10 @@
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="58" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C26" s="76"/>
       <c r="D26" s="34"/>
@@ -3705,17 +3708,25 @@
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="58"/>
-      <c r="B27" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
+      <c r="B27" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="37">
+        <v>1</v>
+      </c>
+      <c r="E27" s="69">
+        <v>45294</v>
+      </c>
+      <c r="F27" s="69">
+        <v>45298</v>
+      </c>
       <c r="G27" s="17"/>
-      <c r="H27" s="17" t="str">
+      <c r="H27" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
@@ -3776,17 +3787,25 @@
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="58"/>
-      <c r="B28" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
+      <c r="B28" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="37">
+        <v>0.7</v>
+      </c>
+      <c r="E28" s="91">
+        <v>45641</v>
+      </c>
+      <c r="F28" s="69">
+        <v>45297</v>
+      </c>
       <c r="G28" s="17"/>
-      <c r="H28" s="17" t="str">
+      <c r="H28" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>-343</v>
       </c>
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
@@ -3847,9 +3866,7 @@
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="58"/>
-      <c r="B29" s="81" t="s">
-        <v>0</v>
-      </c>
+      <c r="B29" s="81"/>
       <c r="C29" s="77"/>
       <c r="D29" s="37"/>
       <c r="E29" s="69"/>
@@ -3918,9 +3935,7 @@
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="58"/>
-      <c r="B30" s="81" t="s">
-        <v>1</v>
-      </c>
+      <c r="B30" s="81"/>
       <c r="C30" s="77"/>
       <c r="D30" s="37"/>
       <c r="E30" s="69"/>
@@ -3989,9 +4004,7 @@
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="58"/>
-      <c r="B31" s="81" t="s">
-        <v>2</v>
-      </c>
+      <c r="B31" s="81"/>
       <c r="C31" s="77"/>
       <c r="D31" s="37"/>
       <c r="E31" s="69"/>
@@ -4060,7 +4073,7 @@
     </row>
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="58" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B32" s="82"/>
       <c r="C32" s="78"/>
@@ -4131,10 +4144,10 @@
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="59" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C33" s="39"/>
       <c r="D33" s="40"/>
@@ -4308,79 +4321,79 @@
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="55" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B3" s="55"/>
     </row>
     <row r="4" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A4" s="52" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="52" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="48" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="57" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A8" s="52" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="53" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="48" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A11" s="52" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="53" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="48" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="56" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A14" s="52" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="53" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="53" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Plan.xlsx
+++ b/Documents/Plan.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
   <si>
     <t>Project Start:</t>
   </si>
@@ -282,6 +282,27 @@
   </si>
   <si>
     <t>work</t>
+  </si>
+  <si>
+    <t>Nội dung tuần 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work </t>
+  </si>
+  <si>
+    <t>backend(phân quyền)</t>
+  </si>
+  <si>
+    <t>Bình, Lam</t>
+  </si>
+  <si>
+    <t>bạckend(admin)</t>
+  </si>
+  <si>
+    <t>Admin(front end)</t>
+  </si>
+  <si>
+    <t>Tuấn, Vinh, lam , Bình</t>
   </si>
 </sst>
 </file>
@@ -894,6 +915,13 @@
     <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -906,13 +934,6 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -929,7 +950,37 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1116,15 +1167,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstColumn" dxfId="14"/>
-      <tableStyleElement type="lastColumn" dxfId="13"/>
-      <tableStyleElement type="firstRowStripe" dxfId="12"/>
-      <tableStyleElement type="secondRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="9"/>
+      <tableStyleElement type="wholeTable" dxfId="20"/>
+      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="totalRow" dxfId="18"/>
+      <tableStyleElement type="firstColumn" dxfId="17"/>
+      <tableStyleElement type="lastColumn" dxfId="16"/>
+      <tableStyleElement type="firstRowStripe" dxfId="15"/>
+      <tableStyleElement type="secondRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="12"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1539,11 +1590,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL37"/>
+  <dimension ref="A1:BL43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="77" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1594,117 +1645,117 @@
       <c r="B3" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="81">
+      <c r="D3" s="79"/>
+      <c r="E3" s="84">
         <v>45639</v>
       </c>
-      <c r="F3" s="81"/>
+      <c r="F3" s="84"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="83"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="78">
+      <c r="I4" s="81">
         <f>I5</f>
         <v>45635</v>
       </c>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="78">
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="81">
         <f>P5</f>
         <v>45642</v>
       </c>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="78">
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="81">
         <f>W5</f>
         <v>45649</v>
       </c>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="79"/>
-      <c r="AB4" s="79"/>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="78">
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="83"/>
+      <c r="AD4" s="81">
         <f>AD5</f>
         <v>45656</v>
       </c>
-      <c r="AE4" s="79"/>
-      <c r="AF4" s="79"/>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="79"/>
-      <c r="AI4" s="79"/>
-      <c r="AJ4" s="80"/>
-      <c r="AK4" s="78">
+      <c r="AE4" s="82"/>
+      <c r="AF4" s="82"/>
+      <c r="AG4" s="82"/>
+      <c r="AH4" s="82"/>
+      <c r="AI4" s="82"/>
+      <c r="AJ4" s="83"/>
+      <c r="AK4" s="81">
         <f>AK5</f>
         <v>45663</v>
       </c>
-      <c r="AL4" s="79"/>
-      <c r="AM4" s="79"/>
-      <c r="AN4" s="79"/>
-      <c r="AO4" s="79"/>
-      <c r="AP4" s="79"/>
-      <c r="AQ4" s="80"/>
-      <c r="AR4" s="78">
+      <c r="AL4" s="82"/>
+      <c r="AM4" s="82"/>
+      <c r="AN4" s="82"/>
+      <c r="AO4" s="82"/>
+      <c r="AP4" s="82"/>
+      <c r="AQ4" s="83"/>
+      <c r="AR4" s="81">
         <f>AR5</f>
         <v>45670</v>
       </c>
-      <c r="AS4" s="79"/>
-      <c r="AT4" s="79"/>
-      <c r="AU4" s="79"/>
-      <c r="AV4" s="79"/>
-      <c r="AW4" s="79"/>
-      <c r="AX4" s="80"/>
-      <c r="AY4" s="78">
+      <c r="AS4" s="82"/>
+      <c r="AT4" s="82"/>
+      <c r="AU4" s="82"/>
+      <c r="AV4" s="82"/>
+      <c r="AW4" s="82"/>
+      <c r="AX4" s="83"/>
+      <c r="AY4" s="81">
         <f>AY5</f>
         <v>45677</v>
       </c>
-      <c r="AZ4" s="79"/>
-      <c r="BA4" s="79"/>
-      <c r="BB4" s="79"/>
-      <c r="BC4" s="79"/>
-      <c r="BD4" s="79"/>
-      <c r="BE4" s="80"/>
-      <c r="BF4" s="78">
+      <c r="AZ4" s="82"/>
+      <c r="BA4" s="82"/>
+      <c r="BB4" s="82"/>
+      <c r="BC4" s="82"/>
+      <c r="BD4" s="82"/>
+      <c r="BE4" s="83"/>
+      <c r="BF4" s="81">
         <f>BF5</f>
         <v>45684</v>
       </c>
-      <c r="BG4" s="79"/>
-      <c r="BH4" s="79"/>
-      <c r="BI4" s="79"/>
-      <c r="BJ4" s="79"/>
-      <c r="BK4" s="79"/>
-      <c r="BL4" s="80"/>
+      <c r="BG4" s="82"/>
+      <c r="BH4" s="82"/>
+      <c r="BI4" s="82"/>
+      <c r="BJ4" s="82"/>
+      <c r="BK4" s="82"/>
+      <c r="BL4" s="83"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
       <c r="I5" s="10">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>45635</v>
@@ -2258,7 +2309,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H38" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H43" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="35"/>
@@ -4509,13 +4560,458 @@
       <c r="BK37" s="35"/>
       <c r="BL37" s="35"/>
     </row>
+    <row r="38" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="62"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="35"/>
+      <c r="AD38" s="35"/>
+      <c r="AE38" s="35"/>
+      <c r="AF38" s="35"/>
+      <c r="AG38" s="35"/>
+      <c r="AH38" s="35"/>
+      <c r="AI38" s="35"/>
+      <c r="AJ38" s="35"/>
+      <c r="AK38" s="35"/>
+      <c r="AL38" s="35"/>
+      <c r="AM38" s="35"/>
+      <c r="AN38" s="35"/>
+      <c r="AO38" s="35"/>
+      <c r="AP38" s="35"/>
+      <c r="AQ38" s="35"/>
+      <c r="AR38" s="35"/>
+      <c r="AS38" s="35"/>
+      <c r="AT38" s="35"/>
+      <c r="AU38" s="35"/>
+      <c r="AV38" s="35"/>
+      <c r="AW38" s="35"/>
+      <c r="AX38" s="35"/>
+      <c r="AY38" s="35"/>
+      <c r="AZ38" s="35"/>
+      <c r="BA38" s="35"/>
+      <c r="BB38" s="35"/>
+      <c r="BC38" s="35"/>
+      <c r="BD38" s="35"/>
+      <c r="BE38" s="35"/>
+      <c r="BF38" s="35"/>
+      <c r="BG38" s="35"/>
+      <c r="BH38" s="35"/>
+      <c r="BI38" s="35"/>
+      <c r="BJ38" s="35"/>
+      <c r="BK38" s="35"/>
+      <c r="BL38" s="35"/>
+    </row>
+    <row r="39" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="29">
+        <v>1</v>
+      </c>
+      <c r="E39" s="57">
+        <v>45669</v>
+      </c>
+      <c r="F39" s="57">
+        <v>45671</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="35"/>
+      <c r="AD39" s="35"/>
+      <c r="AE39" s="35"/>
+      <c r="AF39" s="35"/>
+      <c r="AG39" s="35"/>
+      <c r="AH39" s="35"/>
+      <c r="AI39" s="35"/>
+      <c r="AJ39" s="35"/>
+      <c r="AK39" s="35"/>
+      <c r="AL39" s="35"/>
+      <c r="AM39" s="35"/>
+      <c r="AN39" s="35"/>
+      <c r="AO39" s="35"/>
+      <c r="AP39" s="35"/>
+      <c r="AQ39" s="35"/>
+      <c r="AR39" s="35"/>
+      <c r="AS39" s="35"/>
+      <c r="AT39" s="35"/>
+      <c r="AU39" s="35"/>
+      <c r="AV39" s="35"/>
+      <c r="AW39" s="35"/>
+      <c r="AX39" s="35"/>
+      <c r="AY39" s="35"/>
+      <c r="AZ39" s="35"/>
+      <c r="BA39" s="35"/>
+      <c r="BB39" s="35"/>
+      <c r="BC39" s="35"/>
+      <c r="BD39" s="35"/>
+      <c r="BE39" s="35"/>
+      <c r="BF39" s="35"/>
+      <c r="BG39" s="35"/>
+      <c r="BH39" s="35"/>
+      <c r="BI39" s="35"/>
+      <c r="BJ39" s="35"/>
+      <c r="BK39" s="35"/>
+      <c r="BL39" s="35"/>
+    </row>
+    <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="29">
+        <v>1</v>
+      </c>
+      <c r="E40" s="57">
+        <v>45669</v>
+      </c>
+      <c r="F40" s="57">
+        <v>45677</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="35"/>
+      <c r="AD40" s="35"/>
+      <c r="AE40" s="35"/>
+      <c r="AF40" s="35"/>
+      <c r="AG40" s="35"/>
+      <c r="AH40" s="35"/>
+      <c r="AI40" s="35"/>
+      <c r="AJ40" s="35"/>
+      <c r="AK40" s="35"/>
+      <c r="AL40" s="35"/>
+      <c r="AM40" s="35"/>
+      <c r="AN40" s="35"/>
+      <c r="AO40" s="35"/>
+      <c r="AP40" s="35"/>
+      <c r="AQ40" s="35"/>
+      <c r="AR40" s="35"/>
+      <c r="AS40" s="35"/>
+      <c r="AT40" s="35"/>
+      <c r="AU40" s="35"/>
+      <c r="AV40" s="35"/>
+      <c r="AW40" s="35"/>
+      <c r="AX40" s="35"/>
+      <c r="AY40" s="35"/>
+      <c r="AZ40" s="35"/>
+      <c r="BA40" s="35"/>
+      <c r="BB40" s="35"/>
+      <c r="BC40" s="35"/>
+      <c r="BD40" s="35"/>
+      <c r="BE40" s="35"/>
+      <c r="BF40" s="35"/>
+      <c r="BG40" s="35"/>
+      <c r="BH40" s="35"/>
+      <c r="BI40" s="35"/>
+      <c r="BJ40" s="35"/>
+      <c r="BK40" s="35"/>
+      <c r="BL40" s="35"/>
+    </row>
+    <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="E41" s="57">
+        <v>45669</v>
+      </c>
+      <c r="F41" s="57">
+        <v>45677</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="35"/>
+      <c r="AB41" s="35"/>
+      <c r="AC41" s="35"/>
+      <c r="AD41" s="35"/>
+      <c r="AE41" s="35"/>
+      <c r="AF41" s="35"/>
+      <c r="AG41" s="35"/>
+      <c r="AH41" s="35"/>
+      <c r="AI41" s="35"/>
+      <c r="AJ41" s="35"/>
+      <c r="AK41" s="35"/>
+      <c r="AL41" s="35"/>
+      <c r="AM41" s="35"/>
+      <c r="AN41" s="35"/>
+      <c r="AO41" s="35"/>
+      <c r="AP41" s="35"/>
+      <c r="AQ41" s="35"/>
+      <c r="AR41" s="35"/>
+      <c r="AS41" s="35"/>
+      <c r="AT41" s="35"/>
+      <c r="AU41" s="35"/>
+      <c r="AV41" s="35"/>
+      <c r="AW41" s="35"/>
+      <c r="AX41" s="35"/>
+      <c r="AY41" s="35"/>
+      <c r="AZ41" s="35"/>
+      <c r="BA41" s="35"/>
+      <c r="BB41" s="35"/>
+      <c r="BC41" s="35"/>
+      <c r="BD41" s="35"/>
+      <c r="BE41" s="35"/>
+      <c r="BF41" s="35"/>
+      <c r="BG41" s="35"/>
+      <c r="BH41" s="35"/>
+      <c r="BI41" s="35"/>
+      <c r="BJ41" s="35"/>
+      <c r="BK41" s="35"/>
+      <c r="BL41" s="35"/>
+    </row>
+    <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="29">
+        <v>0.7</v>
+      </c>
+      <c r="E42" s="57">
+        <v>45669</v>
+      </c>
+      <c r="F42" s="57">
+        <v>45677</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="35"/>
+      <c r="AD42" s="35"/>
+      <c r="AE42" s="35"/>
+      <c r="AF42" s="35"/>
+      <c r="AG42" s="35"/>
+      <c r="AH42" s="35"/>
+      <c r="AI42" s="35"/>
+      <c r="AJ42" s="35"/>
+      <c r="AK42" s="35"/>
+      <c r="AL42" s="35"/>
+      <c r="AM42" s="35"/>
+      <c r="AN42" s="35"/>
+      <c r="AO42" s="35"/>
+      <c r="AP42" s="35"/>
+      <c r="AQ42" s="35"/>
+      <c r="AR42" s="35"/>
+      <c r="AS42" s="35"/>
+      <c r="AT42" s="35"/>
+      <c r="AU42" s="35"/>
+      <c r="AV42" s="35"/>
+      <c r="AW42" s="35"/>
+      <c r="AX42" s="35"/>
+      <c r="AY42" s="35"/>
+      <c r="AZ42" s="35"/>
+      <c r="BA42" s="35"/>
+      <c r="BB42" s="35"/>
+      <c r="BC42" s="35"/>
+      <c r="BD42" s="35"/>
+      <c r="BE42" s="35"/>
+      <c r="BF42" s="35"/>
+      <c r="BG42" s="35"/>
+      <c r="BH42" s="35"/>
+      <c r="BI42" s="35"/>
+      <c r="BJ42" s="35"/>
+      <c r="BK42" s="35"/>
+      <c r="BL42" s="35"/>
+    </row>
+    <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="67"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="35"/>
+      <c r="Z43" s="35"/>
+      <c r="AA43" s="35"/>
+      <c r="AB43" s="35"/>
+      <c r="AC43" s="35"/>
+      <c r="AD43" s="35"/>
+      <c r="AE43" s="35"/>
+      <c r="AF43" s="35"/>
+      <c r="AG43" s="35"/>
+      <c r="AH43" s="35"/>
+      <c r="AI43" s="35"/>
+      <c r="AJ43" s="35"/>
+      <c r="AK43" s="35"/>
+      <c r="AL43" s="35"/>
+      <c r="AM43" s="35"/>
+      <c r="AN43" s="35"/>
+      <c r="AO43" s="35"/>
+      <c r="AP43" s="35"/>
+      <c r="AQ43" s="35"/>
+      <c r="AR43" s="35"/>
+      <c r="AS43" s="35"/>
+      <c r="AT43" s="35"/>
+      <c r="AU43" s="35"/>
+      <c r="AV43" s="35"/>
+      <c r="AW43" s="35"/>
+      <c r="AX43" s="35"/>
+      <c r="AY43" s="35"/>
+      <c r="AZ43" s="35"/>
+      <c r="BA43" s="35"/>
+      <c r="BB43" s="35"/>
+      <c r="BC43" s="35"/>
+      <c r="BD43" s="35"/>
+      <c r="BE43" s="35"/>
+      <c r="BF43" s="35"/>
+      <c r="BG43" s="35"/>
+      <c r="BH43" s="35"/>
+      <c r="BI43" s="35"/>
+      <c r="BJ43" s="35"/>
+      <c r="BK43" s="35"/>
+      <c r="BL43" s="35"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4523,9 +5019,14 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D31">
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4539,20 +5040,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:BL31">
-    <cfRule type="expression" dxfId="8" priority="37">
+    <cfRule type="expression" dxfId="11" priority="41">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL31">
-    <cfRule type="expression" dxfId="7" priority="31">
+    <cfRule type="expression" dxfId="10" priority="35">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="36" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D37">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4566,11 +5067,38 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL37">
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:BL37">
+    <cfRule type="expression" dxfId="7" priority="6">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D43">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3B17B9DB-CC3F-4C9B-BD50-CB0723D7D497}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:BL43">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:BL37">
+  <conditionalFormatting sqref="I38:BL43">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4626,6 +5154,21 @@
           </x14:cfRule>
           <xm:sqref>D32:D37</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3B17B9DB-CC3F-4C9B-BD50-CB0723D7D497}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D38:D43</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/Documents/Plan.xlsx
+++ b/Documents/Plan.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="80">
   <si>
     <t>Project Start:</t>
   </si>
@@ -281,28 +281,40 @@
     <t>Nội dung 4</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>Nội dung tuần 5</t>
   </si>
   <si>
-    <t xml:space="preserve">work </t>
-  </si>
-  <si>
     <t>backend(phân quyền)</t>
   </si>
   <si>
     <t>Bình, Lam</t>
   </si>
   <si>
-    <t>bạckend(admin)</t>
-  </si>
-  <si>
     <t>Admin(front end)</t>
   </si>
   <si>
     <t>Tuấn, Vinh, lam , Bình</t>
+  </si>
+  <si>
+    <t>Nội dung tuần 6, 7</t>
+  </si>
+  <si>
+    <t>nội dung tuần</t>
+  </si>
+  <si>
+    <t>nội dung tuần 6</t>
+  </si>
+  <si>
+    <t>nội dung tuần 7</t>
+  </si>
+  <si>
+    <t>backend</t>
+  </si>
+  <si>
+    <t>bạckend</t>
+  </si>
+  <si>
+    <t>28/2/2025</t>
   </si>
 </sst>
 </file>
@@ -692,7 +704,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -913,6 +925,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="10" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
@@ -1590,11 +1605,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL43"/>
+  <dimension ref="A1:BL55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="77" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N41" sqref="N41"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="77" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1643,119 +1658,119 @@
         <v>29</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="84">
+      <c r="D3" s="80"/>
+      <c r="E3" s="85">
         <v>45639</v>
       </c>
-      <c r="F3" s="84"/>
+      <c r="F3" s="85"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="79"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="81">
+      <c r="I4" s="82">
         <f>I5</f>
         <v>45635</v>
       </c>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="81">
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="82">
         <f>P5</f>
         <v>45642</v>
       </c>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="81">
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="82">
         <f>W5</f>
         <v>45649</v>
       </c>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="83"/>
-      <c r="AD4" s="81">
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="82">
         <f>AD5</f>
         <v>45656</v>
       </c>
-      <c r="AE4" s="82"/>
-      <c r="AF4" s="82"/>
-      <c r="AG4" s="82"/>
-      <c r="AH4" s="82"/>
-      <c r="AI4" s="82"/>
-      <c r="AJ4" s="83"/>
-      <c r="AK4" s="81">
+      <c r="AE4" s="83"/>
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="83"/>
+      <c r="AH4" s="83"/>
+      <c r="AI4" s="83"/>
+      <c r="AJ4" s="84"/>
+      <c r="AK4" s="82">
         <f>AK5</f>
         <v>45663</v>
       </c>
-      <c r="AL4" s="82"/>
-      <c r="AM4" s="82"/>
-      <c r="AN4" s="82"/>
-      <c r="AO4" s="82"/>
-      <c r="AP4" s="82"/>
-      <c r="AQ4" s="83"/>
-      <c r="AR4" s="81">
+      <c r="AL4" s="83"/>
+      <c r="AM4" s="83"/>
+      <c r="AN4" s="83"/>
+      <c r="AO4" s="83"/>
+      <c r="AP4" s="83"/>
+      <c r="AQ4" s="84"/>
+      <c r="AR4" s="82">
         <f>AR5</f>
         <v>45670</v>
       </c>
-      <c r="AS4" s="82"/>
-      <c r="AT4" s="82"/>
-      <c r="AU4" s="82"/>
-      <c r="AV4" s="82"/>
-      <c r="AW4" s="82"/>
-      <c r="AX4" s="83"/>
-      <c r="AY4" s="81">
+      <c r="AS4" s="83"/>
+      <c r="AT4" s="83"/>
+      <c r="AU4" s="83"/>
+      <c r="AV4" s="83"/>
+      <c r="AW4" s="83"/>
+      <c r="AX4" s="84"/>
+      <c r="AY4" s="82">
         <f>AY5</f>
         <v>45677</v>
       </c>
-      <c r="AZ4" s="82"/>
-      <c r="BA4" s="82"/>
-      <c r="BB4" s="82"/>
-      <c r="BC4" s="82"/>
-      <c r="BD4" s="82"/>
-      <c r="BE4" s="83"/>
-      <c r="BF4" s="81">
+      <c r="AZ4" s="83"/>
+      <c r="BA4" s="83"/>
+      <c r="BB4" s="83"/>
+      <c r="BC4" s="83"/>
+      <c r="BD4" s="83"/>
+      <c r="BE4" s="84"/>
+      <c r="BF4" s="82">
         <f>BF5</f>
         <v>45684</v>
       </c>
-      <c r="BG4" s="82"/>
-      <c r="BH4" s="82"/>
-      <c r="BI4" s="82"/>
-      <c r="BJ4" s="82"/>
-      <c r="BK4" s="82"/>
-      <c r="BL4" s="83"/>
+      <c r="BG4" s="83"/>
+      <c r="BH4" s="83"/>
+      <c r="BI4" s="83"/>
+      <c r="BJ4" s="83"/>
+      <c r="BK4" s="83"/>
+      <c r="BL4" s="84"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
       <c r="I5" s="10">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>45635</v>
@@ -2309,7 +2324,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H43" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H49" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="35"/>
@@ -4202,7 +4217,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="75" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C33" s="76" t="s">
         <v>65</v>
@@ -4562,7 +4577,7 @@
     </row>
     <row r="38" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" s="62"/>
       <c r="D38" s="26"/>
@@ -4632,7 +4647,7 @@
     </row>
     <row r="39" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="73" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C39" s="74" t="s">
         <v>60</v>
@@ -4710,7 +4725,7 @@
     </row>
     <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="73" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C40" s="74" t="s">
         <v>61</v>
@@ -4788,10 +4803,10 @@
     </row>
     <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="73" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C41" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D41" s="29">
         <v>0.8</v>
@@ -4866,10 +4881,10 @@
     </row>
     <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="73" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C42" s="74" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D42" s="29">
         <v>0.7</v>
@@ -5010,6 +5025,474 @@
       <c r="BK43" s="35"/>
       <c r="BL43" s="35"/>
     </row>
+    <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="60"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="35"/>
+      <c r="V44" s="35"/>
+      <c r="W44" s="35"/>
+      <c r="X44" s="35"/>
+      <c r="Y44" s="35"/>
+      <c r="Z44" s="35"/>
+      <c r="AA44" s="35"/>
+      <c r="AB44" s="35"/>
+      <c r="AC44" s="35"/>
+      <c r="AD44" s="35"/>
+      <c r="AE44" s="35"/>
+      <c r="AF44" s="35"/>
+      <c r="AG44" s="35"/>
+      <c r="AH44" s="35"/>
+      <c r="AI44" s="35"/>
+      <c r="AJ44" s="35"/>
+      <c r="AK44" s="35"/>
+      <c r="AL44" s="35"/>
+      <c r="AM44" s="35"/>
+      <c r="AN44" s="35"/>
+      <c r="AO44" s="35"/>
+      <c r="AP44" s="35"/>
+      <c r="AQ44" s="35"/>
+      <c r="AR44" s="35"/>
+      <c r="AS44" s="35"/>
+      <c r="AT44" s="35"/>
+      <c r="AU44" s="35"/>
+      <c r="AV44" s="35"/>
+      <c r="AW44" s="35"/>
+      <c r="AX44" s="35"/>
+      <c r="AY44" s="35"/>
+      <c r="AZ44" s="35"/>
+      <c r="BA44" s="35"/>
+      <c r="BB44" s="35"/>
+      <c r="BC44" s="35"/>
+      <c r="BD44" s="35"/>
+      <c r="BE44" s="35"/>
+      <c r="BF44" s="35"/>
+      <c r="BG44" s="35"/>
+      <c r="BH44" s="35"/>
+      <c r="BI44" s="35"/>
+      <c r="BJ44" s="35"/>
+      <c r="BK44" s="35"/>
+      <c r="BL44" s="35"/>
+    </row>
+    <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="24">
+        <v>1</v>
+      </c>
+      <c r="E45" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="56">
+        <v>45719</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="35"/>
+      <c r="T45" s="35"/>
+      <c r="U45" s="35"/>
+      <c r="V45" s="35"/>
+      <c r="W45" s="35"/>
+      <c r="X45" s="35"/>
+      <c r="Y45" s="35"/>
+      <c r="Z45" s="35"/>
+      <c r="AA45" s="35"/>
+      <c r="AB45" s="35"/>
+      <c r="AC45" s="35"/>
+      <c r="AD45" s="35"/>
+      <c r="AE45" s="35"/>
+      <c r="AF45" s="35"/>
+      <c r="AG45" s="35"/>
+      <c r="AH45" s="35"/>
+      <c r="AI45" s="35"/>
+      <c r="AJ45" s="35"/>
+      <c r="AK45" s="35"/>
+      <c r="AL45" s="35"/>
+      <c r="AM45" s="35"/>
+      <c r="AN45" s="35"/>
+      <c r="AO45" s="35"/>
+      <c r="AP45" s="35"/>
+      <c r="AQ45" s="35"/>
+      <c r="AR45" s="35"/>
+      <c r="AS45" s="35"/>
+      <c r="AT45" s="35"/>
+      <c r="AU45" s="35"/>
+      <c r="AV45" s="35"/>
+      <c r="AW45" s="35"/>
+      <c r="AX45" s="35"/>
+      <c r="AY45" s="35"/>
+      <c r="AZ45" s="35"/>
+      <c r="BA45" s="35"/>
+      <c r="BB45" s="35"/>
+      <c r="BC45" s="35"/>
+      <c r="BD45" s="35"/>
+      <c r="BE45" s="35"/>
+      <c r="BF45" s="35"/>
+      <c r="BG45" s="35"/>
+      <c r="BH45" s="35"/>
+      <c r="BI45" s="35"/>
+      <c r="BJ45" s="35"/>
+      <c r="BK45" s="35"/>
+      <c r="BL45" s="35"/>
+    </row>
+    <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="24">
+        <v>1</v>
+      </c>
+      <c r="E46" s="56">
+        <v>45717</v>
+      </c>
+      <c r="F46" s="56">
+        <v>45719</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="36"/>
+      <c r="V46" s="36"/>
+      <c r="W46" s="35"/>
+      <c r="X46" s="35"/>
+      <c r="Y46" s="35"/>
+      <c r="Z46" s="35"/>
+      <c r="AA46" s="35"/>
+      <c r="AB46" s="35"/>
+      <c r="AC46" s="35"/>
+      <c r="AD46" s="35"/>
+      <c r="AE46" s="35"/>
+      <c r="AF46" s="35"/>
+      <c r="AG46" s="35"/>
+      <c r="AH46" s="35"/>
+      <c r="AI46" s="35"/>
+      <c r="AJ46" s="35"/>
+      <c r="AK46" s="35"/>
+      <c r="AL46" s="35"/>
+      <c r="AM46" s="35"/>
+      <c r="AN46" s="35"/>
+      <c r="AO46" s="35"/>
+      <c r="AP46" s="35"/>
+      <c r="AQ46" s="35"/>
+      <c r="AR46" s="35"/>
+      <c r="AS46" s="35"/>
+      <c r="AT46" s="35"/>
+      <c r="AU46" s="35"/>
+      <c r="AV46" s="35"/>
+      <c r="AW46" s="35"/>
+      <c r="AX46" s="35"/>
+      <c r="AY46" s="35"/>
+      <c r="AZ46" s="35"/>
+      <c r="BA46" s="35"/>
+      <c r="BB46" s="35"/>
+      <c r="BC46" s="35"/>
+      <c r="BD46" s="35"/>
+      <c r="BE46" s="35"/>
+      <c r="BF46" s="35"/>
+      <c r="BG46" s="35"/>
+      <c r="BH46" s="35"/>
+      <c r="BI46" s="35"/>
+      <c r="BJ46" s="35"/>
+      <c r="BK46" s="35"/>
+      <c r="BL46" s="35"/>
+    </row>
+    <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="24">
+        <v>1</v>
+      </c>
+      <c r="E47" s="56">
+        <v>45709</v>
+      </c>
+      <c r="F47" s="78">
+        <v>45713</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="35"/>
+      <c r="U47" s="35"/>
+      <c r="V47" s="35"/>
+      <c r="W47" s="35"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="35"/>
+      <c r="AA47" s="35"/>
+      <c r="AB47" s="35"/>
+      <c r="AC47" s="35"/>
+      <c r="AD47" s="35"/>
+      <c r="AE47" s="35"/>
+      <c r="AF47" s="35"/>
+      <c r="AG47" s="35"/>
+      <c r="AH47" s="35"/>
+      <c r="AI47" s="35"/>
+      <c r="AJ47" s="35"/>
+      <c r="AK47" s="35"/>
+      <c r="AL47" s="35"/>
+      <c r="AM47" s="35"/>
+      <c r="AN47" s="35"/>
+      <c r="AO47" s="35"/>
+      <c r="AP47" s="35"/>
+      <c r="AQ47" s="35"/>
+      <c r="AR47" s="35"/>
+      <c r="AS47" s="35"/>
+      <c r="AT47" s="35"/>
+      <c r="AU47" s="35"/>
+      <c r="AV47" s="35"/>
+      <c r="AW47" s="35"/>
+      <c r="AX47" s="35"/>
+      <c r="AY47" s="35"/>
+      <c r="AZ47" s="35"/>
+      <c r="BA47" s="35"/>
+      <c r="BB47" s="35"/>
+      <c r="BC47" s="35"/>
+      <c r="BD47" s="35"/>
+      <c r="BE47" s="35"/>
+      <c r="BF47" s="35"/>
+      <c r="BG47" s="35"/>
+      <c r="BH47" s="35"/>
+      <c r="BI47" s="35"/>
+      <c r="BJ47" s="35"/>
+      <c r="BK47" s="35"/>
+      <c r="BL47" s="35"/>
+    </row>
+    <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="E48" s="56">
+        <v>45702</v>
+      </c>
+      <c r="F48" s="56">
+        <v>45719</v>
+      </c>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="35"/>
+      <c r="Y48" s="36"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
+      <c r="AB48" s="35"/>
+      <c r="AC48" s="35"/>
+      <c r="AD48" s="35"/>
+      <c r="AE48" s="35"/>
+      <c r="AF48" s="35"/>
+      <c r="AG48" s="35"/>
+      <c r="AH48" s="35"/>
+      <c r="AI48" s="35"/>
+      <c r="AJ48" s="35"/>
+      <c r="AK48" s="35"/>
+      <c r="AL48" s="35"/>
+      <c r="AM48" s="35"/>
+      <c r="AN48" s="35"/>
+      <c r="AO48" s="35"/>
+      <c r="AP48" s="35"/>
+      <c r="AQ48" s="35"/>
+      <c r="AR48" s="35"/>
+      <c r="AS48" s="35"/>
+      <c r="AT48" s="35"/>
+      <c r="AU48" s="35"/>
+      <c r="AV48" s="35"/>
+      <c r="AW48" s="35"/>
+      <c r="AX48" s="35"/>
+      <c r="AY48" s="35"/>
+      <c r="AZ48" s="35"/>
+      <c r="BA48" s="35"/>
+      <c r="BB48" s="35"/>
+      <c r="BC48" s="35"/>
+      <c r="BD48" s="35"/>
+      <c r="BE48" s="35"/>
+      <c r="BF48" s="35"/>
+      <c r="BG48" s="35"/>
+      <c r="BH48" s="35"/>
+      <c r="BI48" s="35"/>
+      <c r="BJ48" s="35"/>
+      <c r="BK48" s="35"/>
+      <c r="BL48" s="35"/>
+    </row>
+    <row r="49" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="66"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="35"/>
+      <c r="Y49" s="35"/>
+      <c r="Z49" s="35"/>
+      <c r="AA49" s="35"/>
+      <c r="AB49" s="35"/>
+      <c r="AC49" s="35"/>
+      <c r="AD49" s="35"/>
+      <c r="AE49" s="35"/>
+      <c r="AF49" s="35"/>
+      <c r="AG49" s="35"/>
+      <c r="AH49" s="35"/>
+      <c r="AI49" s="35"/>
+      <c r="AJ49" s="35"/>
+      <c r="AK49" s="35"/>
+      <c r="AL49" s="35"/>
+      <c r="AM49" s="35"/>
+      <c r="AN49" s="35"/>
+      <c r="AO49" s="35"/>
+      <c r="AP49" s="35"/>
+      <c r="AQ49" s="35"/>
+      <c r="AR49" s="35"/>
+      <c r="AS49" s="35"/>
+      <c r="AT49" s="35"/>
+      <c r="AU49" s="35"/>
+      <c r="AV49" s="35"/>
+      <c r="AW49" s="35"/>
+      <c r="AX49" s="35"/>
+      <c r="AY49" s="35"/>
+      <c r="AZ49" s="35"/>
+      <c r="BA49" s="35"/>
+      <c r="BB49" s="35"/>
+      <c r="BC49" s="35"/>
+      <c r="BD49" s="35"/>
+      <c r="BE49" s="35"/>
+      <c r="BF49" s="35"/>
+      <c r="BG49" s="35"/>
+      <c r="BH49" s="35"/>
+      <c r="BI49" s="35"/>
+      <c r="BJ49" s="35"/>
+      <c r="BK49" s="35"/>
+      <c r="BL49" s="35"/>
+    </row>
+    <row r="50" spans="2:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="2:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="2:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="2:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="2:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="2:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E55"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="AY4:BE4"/>
@@ -5026,7 +5509,7 @@
     <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D31">
-    <cfRule type="dataBar" priority="22">
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5040,20 +5523,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:BL31">
-    <cfRule type="expression" dxfId="11" priority="41">
+    <cfRule type="expression" dxfId="11" priority="57">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL31">
-    <cfRule type="expression" dxfId="10" priority="35">
+    <cfRule type="expression" dxfId="10" priority="51">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="52" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D37">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5067,20 +5550,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL37">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="8" priority="24">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL37">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="7" priority="22">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="23" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:D43">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5094,15 +5577,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:BL43">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="5" priority="20">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:BL43">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="18">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="19" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D49">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{55141FCB-763F-4120-AE57-87E21A52A754}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:BL49">
+    <cfRule type="expression" dxfId="2" priority="8">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:BL49">
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5169,6 +5679,21 @@
           </x14:cfRule>
           <xm:sqref>D38:D43</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{55141FCB-763F-4120-AE57-87E21A52A754}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D44:D49</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
